--- a/data/gebieden/GemiddeldeWOZWaardeWoningen22GebiedenEnStadsdelenX1Euro)1Januari20142015.xlsx
+++ b/data/gebieden/GemiddeldeWOZWaardeWoningen22GebiedenEnStadsdelenX1Euro)1Januari20142015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="3440" yWindow="180" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="2015_stadsdelen_5.4" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2015_stadsdelen_5.4'!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>5.4b  Gemiddelde WOZ-waarde woningen 22 gebieden en stadsdelen (x 1 euro), 1 januari 2014-2015</t>
   </si>
@@ -133,13 +133,148 @@
   </si>
   <si>
     <t>ASD Amsterdam</t>
+  </si>
+  <si>
+    <t>gebied</t>
+  </si>
+  <si>
+    <t>gebiedNaam</t>
+  </si>
+  <si>
+    <t>WOZ</t>
+  </si>
+  <si>
+    <t>WOZm2</t>
+  </si>
+  <si>
+    <t>CentrumWest</t>
+  </si>
+  <si>
+    <t>Centrum-West</t>
+  </si>
+  <si>
+    <t>CentrumOost</t>
+  </si>
+  <si>
+    <t>Centrum-Oost</t>
+  </si>
+  <si>
+    <t>Westerpark</t>
+  </si>
+  <si>
+    <t>BOLO</t>
+  </si>
+  <si>
+    <t>Bos en Lommer</t>
+  </si>
+  <si>
+    <t>OudWestDeBaarsjes</t>
+  </si>
+  <si>
+    <t>Oud-West/De Baarsjes</t>
+  </si>
+  <si>
+    <t>GeuzenveldSlotermeer</t>
+  </si>
+  <si>
+    <t>Geuzenveld/Slotermeer</t>
+  </si>
+  <si>
+    <t>Osdorp</t>
+  </si>
+  <si>
+    <t>DeAkerNieuwSloten</t>
+  </si>
+  <si>
+    <t>De Aker/Nieuw Sloten</t>
+  </si>
+  <si>
+    <t>Slotervaart</t>
+  </si>
+  <si>
+    <t>OudZuid</t>
+  </si>
+  <si>
+    <t>Oud-Zuid</t>
+  </si>
+  <si>
+    <t>BuitenveldertZuidas</t>
+  </si>
+  <si>
+    <t>Buitenveldert/Zuidas</t>
+  </si>
+  <si>
+    <t>DePijpRivierenbuurt</t>
+  </si>
+  <si>
+    <t>De Pijp/Rivierenbuurt</t>
+  </si>
+  <si>
+    <t>OudOost</t>
+  </si>
+  <si>
+    <t>Oud-Oost</t>
+  </si>
+  <si>
+    <t>IndischeBuurtOostelijkHavengebied</t>
+  </si>
+  <si>
+    <t>Indische Buurt/Oostelijk Havengebied</t>
+  </si>
+  <si>
+    <t>Watergraafsmeer</t>
+  </si>
+  <si>
+    <t>IJburgZeeburgereiland</t>
+  </si>
+  <si>
+    <t>IJburg/Zeeburgereiland</t>
+  </si>
+  <si>
+    <t>NoordWest</t>
+  </si>
+  <si>
+    <t>Noord-West</t>
+  </si>
+  <si>
+    <t>OudNoord</t>
+  </si>
+  <si>
+    <t>Oud-Noord</t>
+  </si>
+  <si>
+    <t>NoordOost</t>
+  </si>
+  <si>
+    <t>Noord-Oost</t>
+  </si>
+  <si>
+    <t>BijlmerCentrum</t>
+  </si>
+  <si>
+    <t>Bijlmer-Centrum</t>
+  </si>
+  <si>
+    <t>BijlmerOost</t>
+  </si>
+  <si>
+    <t>Bijlmer-Oost</t>
+  </si>
+  <si>
+    <t>GaasperdamDriemond</t>
+  </si>
+  <si>
+    <t>Gaasperdam/Driemond</t>
+  </si>
+  <si>
+    <t>Westpoort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,6 +299,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -195,10 +342,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -233,8 +400,34 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,10 +730,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -550,7 +743,7 @@
     <col min="6" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,13 +752,13 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1">
       <c r="B3" s="7">
         <v>2014</v>
       </c>
@@ -575,7 +768,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -592,14 +785,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+      <c r="O5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,8 +820,35 @@
       <c r="E6" s="6">
         <v>4194</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>321204</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4194</v>
+      </c>
+      <c r="L6" s="12">
+        <v>15938</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>321204</v>
+      </c>
+      <c r="R6" s="3">
+        <v>4194</v>
+      </c>
+      <c r="S6" s="12">
+        <v>15938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -632,8 +864,35 @@
       <c r="E7" s="6">
         <v>3897</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6">
+        <v>326857</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3897</v>
+      </c>
+      <c r="L7" s="12">
+        <v>12064</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>326857</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3897</v>
+      </c>
+      <c r="S7" s="12">
+        <v>12064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -649,8 +908,27 @@
       <c r="E8" s="9">
         <v>4048</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="13"/>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>220027</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3617</v>
+      </c>
+      <c r="S8" s="12">
+        <v>12134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -666,8 +944,35 @@
       <c r="E9" s="6">
         <v>3617</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="6">
+        <v>220027</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3617</v>
+      </c>
+      <c r="L9" s="12">
+        <v>12134</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>176752</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2881</v>
+      </c>
+      <c r="S9" s="12">
+        <v>10423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -683,8 +988,35 @@
       <c r="E10" s="6">
         <v>2881</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
+        <v>176752</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2881</v>
+      </c>
+      <c r="L10" s="12">
+        <v>10423</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>234858</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3570</v>
+      </c>
+      <c r="S10" s="12">
+        <v>23316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -700,8 +1032,35 @@
       <c r="E11" s="6">
         <v>3570</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6">
+        <v>234858</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3570</v>
+      </c>
+      <c r="L11" s="12">
+        <v>23316</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>155444</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2179</v>
+      </c>
+      <c r="S11" s="12">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -717,8 +1076,27 @@
       <c r="E12" s="9">
         <v>3441</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="13"/>
+      <c r="O12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>174206</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2127</v>
+      </c>
+      <c r="S12" s="12">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -734,8 +1112,35 @@
       <c r="E13" s="6">
         <v>2179</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6">
+        <v>155444</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2179</v>
+      </c>
+      <c r="L13" s="12">
+        <v>3135</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>257123</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2391</v>
+      </c>
+      <c r="S13" s="12">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -751,8 +1156,35 @@
       <c r="E14" s="6">
         <v>2127</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="6">
+        <v>174206</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2127</v>
+      </c>
+      <c r="L14" s="12">
+        <v>4433</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>182836</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2246</v>
+      </c>
+      <c r="S14" s="12">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -768,8 +1200,35 @@
       <c r="E15" s="6">
         <v>2391</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="6">
+        <v>257123</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2391</v>
+      </c>
+      <c r="L15" s="12">
+        <v>4598</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>417031</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4027</v>
+      </c>
+      <c r="S15" s="12">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -785,8 +1244,35 @@
       <c r="E16" s="6">
         <v>2246</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="6">
+        <v>182836</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2246</v>
+      </c>
+      <c r="L16" s="12">
+        <v>7036</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>267096</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2852</v>
+      </c>
+      <c r="S16" s="12">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -802,8 +1288,27 @@
       <c r="E17" s="9">
         <v>2220</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
+      <c r="O17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>253387</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3813</v>
+      </c>
+      <c r="S17" s="12">
+        <v>17439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -819,8 +1324,35 @@
       <c r="E18" s="6">
         <v>4027</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="6">
+        <v>417031</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4027</v>
+      </c>
+      <c r="L18" s="12">
+        <v>11011</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>222476</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3272</v>
+      </c>
+      <c r="S18" s="12">
+        <v>16511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -836,8 +1368,35 @@
       <c r="E19" s="6">
         <v>2852</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="6">
+        <v>267096</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2852</v>
+      </c>
+      <c r="L19" s="12">
+        <v>3343</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>247278</v>
+      </c>
+      <c r="R19" s="3">
+        <v>3098</v>
+      </c>
+      <c r="S19" s="12">
+        <v>14235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -853,8 +1412,35 @@
       <c r="E20" s="6">
         <v>3813</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6">
+        <v>253387</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3813</v>
+      </c>
+      <c r="L20" s="12">
+        <v>17439</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>236051</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3293</v>
+      </c>
+      <c r="S20" s="12">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -870,8 +1456,27 @@
       <c r="E21" s="9">
         <v>3721</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="13"/>
+      <c r="O21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>299146</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2755</v>
+      </c>
+      <c r="S21" s="12">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -887,8 +1492,35 @@
       <c r="E22" s="6">
         <v>3272</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="6">
+        <v>222476</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3272</v>
+      </c>
+      <c r="L22" s="12">
+        <v>16511</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>182709</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2220</v>
+      </c>
+      <c r="S22" s="12">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -904,8 +1536,35 @@
       <c r="E23" s="6">
         <v>3098</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="6">
+        <v>247278</v>
+      </c>
+      <c r="K23" s="6">
+        <v>3098</v>
+      </c>
+      <c r="L23" s="12">
+        <v>14235</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>179861</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2562</v>
+      </c>
+      <c r="S23" s="12">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -921,8 +1580,35 @@
       <c r="E24" s="6">
         <v>3293</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="6">
+        <v>236051</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3293</v>
+      </c>
+      <c r="L24" s="12">
+        <v>3823</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>185331</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2119</v>
+      </c>
+      <c r="S24" s="12">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -938,8 +1624,35 @@
       <c r="E25" s="6">
         <v>2755</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="6">
+        <v>299146</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2755</v>
+      </c>
+      <c r="L25" s="12">
+        <v>4955</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>123437</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1718</v>
+      </c>
+      <c r="S25" s="12">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
@@ -955,8 +1668,27 @@
       <c r="E26" s="9">
         <v>3151</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="13"/>
+      <c r="O26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>143943</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1656</v>
+      </c>
+      <c r="S26" s="12">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -972,8 +1704,35 @@
       <c r="E27" s="6">
         <v>2220</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="6">
+        <v>182709</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2220</v>
+      </c>
+      <c r="L27" s="12">
+        <v>5172</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>152091</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1848</v>
+      </c>
+      <c r="S27" s="12">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -989,8 +1748,35 @@
       <c r="E28" s="6">
         <v>2562</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="6">
+        <v>179861</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2562</v>
+      </c>
+      <c r="L28" s="12">
+        <v>4084</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>189402</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1854</v>
+      </c>
+      <c r="S28" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1006,8 +1792,20 @@
       <c r="E29" s="6">
         <v>2119</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="6">
+        <v>185331</v>
+      </c>
+      <c r="K29" s="6">
+        <v>2119</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
@@ -1023,8 +1821,12 @@
       <c r="E30" s="9">
         <v>2294</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:19" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1040,8 +1842,20 @@
       <c r="E31" s="6">
         <v>1718</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="6">
+        <v>123437</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1718</v>
+      </c>
+      <c r="L31" s="12">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1057,8 +1871,20 @@
       <c r="E32" s="6">
         <v>1656</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="6">
+        <v>143943</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1656</v>
+      </c>
+      <c r="L32" s="12">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1074,8 +1900,20 @@
       <c r="E33" s="6">
         <v>1848</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="6">
+        <v>152091</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1848</v>
+      </c>
+      <c r="L33" s="12">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
@@ -1091,8 +1929,18 @@
       <c r="E34" s="9">
         <v>1751</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="9">
+        <v>141548</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1751</v>
+      </c>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
@@ -1108,8 +1956,20 @@
       <c r="E35" s="9">
         <v>1854</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="9">
+        <v>189402</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1854</v>
+      </c>
+      <c r="L35" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1125,8 +1985,17 @@
       <c r="E36" s="11">
         <v>3053</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+      <c r="I36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="11">
+        <v>238831</v>
+      </c>
+      <c r="K36" s="11">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" customHeight="1">
       <c r="E38" s="5" t="s">
         <v>1</v>
       </c>
